--- a/dataset/consulta.xlsx
+++ b/dataset/consulta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nina\Desktop\Machine Learning- R\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C51AD95-DA61-4677-8AFF-3347AA9B937C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BAE718-CA34-406B-A736-DFCEF3A42435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,7 +887,7 @@
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
